--- a/belt_tension/data/BeltStudy_xxHz_150mm_NewGatesBelt_afterprint.xlsx
+++ b/belt_tension/data/BeltStudy_xxHz_150mm_NewGatesBelt_afterprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshualongenecker/Github/jdlongenecker/documentation/belt_tension/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC56087-EB3E-594A-8982-2423BA26E44D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB150CAB-2621-D642-8D02-2F18760CF965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{3A861592-AD1D-0744-9596-83EA54D8F991}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="4" xr2:uid="{3A861592-AD1D-0744-9596-83EA54D8F991}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="2" r:id="rId1"/>
@@ -7797,7 +7797,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39245BB2-95E1-7447-BBE7-70DE543597E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="194" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8268,8 +8268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79067909-0A2A-8D45-945C-9152AAA6A6CC}">
   <dimension ref="B2:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10939,7 +10939,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R2 M2 H2 C2 C4:C1048576 H5:H1048576 M5:M1048576 R5:R1048576">
+  <conditionalFormatting sqref="M2 R2 H2 C2 C4:C1048576 H5:H1048576 M5:M1048576 R5:R1048576">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10951,7 +10951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2 D2 N2 S2 S5:S1048576 N5:N1048576 I5:I1048576 D4:D1048576">
+  <conditionalFormatting sqref="D2 I2 N2 S2 S5:S1048576 N5:N1048576 I5:I1048576 D4:D1048576">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10963,7 +10963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2 E2 O2 T2 T5:T1048576 O5:O1048576 J5:J1048576 E4:E1048576">
+  <conditionalFormatting sqref="E2 J2 O2 T2 T5:T1048576 O5:O1048576 J5:J1048576 E4:E1048576">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
